--- a/second.xlsx
+++ b/second.xlsx
@@ -8,19 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Python\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA71753-BA6B-4C3A-AE3D-469406F74A1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24C870D-065F-46F4-BDBC-47292997A904}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1368" yWindow="696" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>Лимиты ПСО</t>
   </si>
@@ -127,7 +134,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -413,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I20"/>
+  <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,70 +444,70 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -523,6 +532,7 @@
         <v>12546874</v>
       </c>
       <c r="I12">
+        <f ca="1">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -548,7 +558,8 @@
       <c r="G13">
         <v>12469753</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
+        <f t="shared" ref="I13:I22" ca="1" si="0">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -574,8 +585,9 @@
       <c r="G14">
         <v>43671244</v>
       </c>
-      <c r="I14">
-        <v>1</v>
+      <c r="I14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -597,7 +609,8 @@
       <c r="G15">
         <v>25669435</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -617,7 +630,8 @@
       <c r="G16">
         <v>11234458</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -640,8 +654,9 @@
       <c r="G17">
         <v>36475412</v>
       </c>
-      <c r="I17">
-        <v>1</v>
+      <c r="I17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -663,8 +678,9 @@
       <c r="G18">
         <v>12469856</v>
       </c>
-      <c r="I18">
-        <v>1</v>
+      <c r="I18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -683,8 +699,9 @@
       <c r="G19">
         <v>13475141</v>
       </c>
-      <c r="I19">
-        <v>1</v>
+      <c r="I19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -703,7 +720,56 @@
       <c r="G20">
         <v>22564475</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1">
+        <v>22564475</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
+        <v>22564475</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="2">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
